--- a/DataTest/DataTestCMS.xlsx
+++ b/DataTest/DataTestCMS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nuceedu-my.sharepoint.com/personal/dung47265_huce_edu_vn/Documents/DATN_47265/DATN_Selenium_Java_ThuyDung1/DATN_Selenium_Java_ThuyDung/DataTest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Do_An_Tot_Nghiep\DATN\DATN_NGUYENTHITHANH\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2666CD2A-0900-4DCD-801A-6E8284BFD35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45ECE448-35CF-4192-9CD3-F6D249C6B91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4185" windowWidth="22905" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
@@ -39,27 +39,15 @@
     <t>Coupon Not Exist</t>
   </si>
   <si>
-    <t>DUNG3</t>
-  </si>
-  <si>
-    <t>DUNG2</t>
-  </si>
-  <si>
     <t>Coupon code</t>
   </si>
   <si>
     <t>No Variant</t>
   </si>
   <si>
-    <t>Gio qua Tet Thuy Dung CZRFANYB</t>
-  </si>
-  <si>
     <t>Variant</t>
   </si>
   <si>
-    <t>Cosy Thuy Dung OOTVUJLN</t>
-  </si>
-  <si>
     <t>productName</t>
   </si>
   <si>
@@ -75,9 +63,6 @@
     <t>abcd</t>
   </si>
   <si>
-    <t>Cosy Thuy Dung UMTSHEGI</t>
-  </si>
-  <si>
     <t>keySearchProduct</t>
   </si>
   <si>
@@ -111,12 +96,6 @@
     <t xml:space="preserve">Sản phẩm seller - không có biến thể </t>
   </si>
   <si>
-    <t>Cosy Thuy Dung Update VFYJWRFN</t>
-  </si>
-  <si>
-    <t>Cosy Thuy Dung GBNXJUZQ</t>
-  </si>
-  <si>
     <t>note</t>
   </si>
   <si>
@@ -127,6 +106,27 @@
   </si>
   <si>
     <t>Giao ngay</t>
+  </si>
+  <si>
+    <t>thanh6</t>
+  </si>
+  <si>
+    <t>thanh2</t>
+  </si>
+  <si>
+    <t>Gio qua Tet ThanhITK62 CZRFANYB</t>
+  </si>
+  <si>
+    <t>Cosy ThanhITK62 OOTVUJLN</t>
+  </si>
+  <si>
+    <t>Cosy ThanhITK62 Update VFYJWRFN</t>
+  </si>
+  <si>
+    <t>Cosy ThanhITK62 GBNXJUZQ</t>
+  </si>
+  <si>
+    <t>Cosy ThanhITK62 UMTSHEGI</t>
   </si>
 </sst>
 </file>
@@ -137,14 +137,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -454,16 +454,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.09765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -471,73 +471,73 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5">
@@ -555,13 +555,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -577,7 +577,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -598,12 +598,12 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.3984375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
   </cols>
@@ -613,38 +613,38 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
       <c r="D3">
-        <v>2</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -656,14 +656,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494B4BD2-44EF-4A17-A33D-647A52D36163}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -671,39 +671,39 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/DataTest/DataTestCMS.xlsx
+++ b/DataTest/DataTestCMS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Do_An_Tot_Nghiep\DATN\DATN_NGUYENTHITHANH\DataTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45ECE448-35CF-4192-9CD3-F6D249C6B91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{483DCEF9-B15C-45DF-98A2-585482F73035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Order" sheetId="1" r:id="rId1"/>
@@ -108,25 +108,25 @@
     <t>Giao ngay</t>
   </si>
   <si>
-    <t>thanh6</t>
-  </si>
-  <si>
-    <t>thanh2</t>
-  </si>
-  <si>
-    <t>Gio qua Tet ThanhITK62 CZRFANYB</t>
-  </si>
-  <si>
-    <t>Cosy ThanhITK62 OOTVUJLN</t>
-  </si>
-  <si>
-    <t>Cosy ThanhITK62 Update VFYJWRFN</t>
-  </si>
-  <si>
-    <t>Cosy ThanhITK62 GBNXJUZQ</t>
-  </si>
-  <si>
-    <t>Cosy ThanhITK62 UMTSHEGI</t>
+    <t>Cosy Thanh UMTSHEGI</t>
+  </si>
+  <si>
+    <t>Gio qua Tet Thanh CZRFANYB</t>
+  </si>
+  <si>
+    <t>Cosy Thanh OOTVUJLN</t>
+  </si>
+  <si>
+    <t>Cosy Thanh Update VFYJWRFN</t>
+  </si>
+  <si>
+    <t>Cosy Thanh GBNXJUZQ</t>
+  </si>
+  <si>
+    <t>Thanh3</t>
+  </si>
+  <si>
+    <t>Thanh2</t>
   </si>
 </sst>
 </file>
@@ -454,14 +454,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.8984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.09765625" bestFit="1" customWidth="1"/>
   </cols>
@@ -488,7 +488,7 @@
         <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -505,7 +505,7 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>9</v>
@@ -522,7 +522,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4">
@@ -537,7 +537,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5">
@@ -555,7 +555,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -577,7 +577,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -585,7 +585,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -598,7 +598,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -627,10 +627,10 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -638,13 +638,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3">
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -656,14 +656,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{494B4BD2-44EF-4A17-A33D-647A52D36163}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -679,7 +679,7 @@
         <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
